--- a/summary_mitigators_table.xlsx
+++ b/summary_mitigators_table.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="34" documentId="8_{8A867626-2B52-4DB9-9FD2-4ACA95E94EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB53FCD9-6D85-40FE-9E13-4B68712979A0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20928" windowHeight="13800" xr2:uid="{C7C7E133-6540-4860-8BFB-5820B99056E7}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20928" windowHeight="13800" xr2:uid="{C7C7E133-6540-4860-8BFB-5820B99056E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -623,7 +623,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/summary_mitigators_table.xlsx
+++ b/summary_mitigators_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/sarah_lucas3_nhs_net/Documents/Documents/2025 projects/Describing NHP mitigators/nhp_community_mitigators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{8A867626-2B52-4DB9-9FD2-4ACA95E94EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB53FCD9-6D85-40FE-9E13-4B68712979A0}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="8_{8A867626-2B52-4DB9-9FD2-4ACA95E94EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7866A2-C6D0-4313-BBA5-36EBD5B55428}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20928" windowHeight="13800" xr2:uid="{C7C7E133-6540-4860-8BFB-5820B99056E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20928" windowHeight="13800" xr2:uid="{C7C7E133-6540-4860-8BFB-5820B99056E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,12 +128,6 @@
     <t>Virtual Wards LoS Reduction (Heart Failure)</t>
   </si>
   <si>
-    <t>non-elective &amp; elective</t>
-  </si>
-  <si>
-    <t>non-elective</t>
-  </si>
-  <si>
     <t>Efficiencies &amp; Relocation</t>
   </si>
   <si>
@@ -249,6 +243,12 @@
   </si>
   <si>
     <t>medicines_related_admissions_implicit_anti_diabetics</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>emergency &amp; elective</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,466 +636,466 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
       <c r="E1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
         <v>25</v>
@@ -1104,15 +1104,15 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>27</v>
@@ -1121,15 +1121,15 @@
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -1138,10 +1138,10 @@
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/summary_mitigators_table.xlsx
+++ b/summary_mitigators_table.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/summary_mitigators_table.xlsx
+++ b/summary_mitigators_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/sarah_lucas3_nhs_net/Documents/Documents/2025 projects/Describing NHP mitigators/nhp_community_mitigators/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="8_{8A867626-2B52-4DB9-9FD2-4ACA95E94EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE7866A2-C6D0-4313-BBA5-36EBD5B55428}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{8A867626-2B52-4DB9-9FD2-4ACA95E94EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B20047-4876-4BC3-9AEB-E54D1626EB63}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20928" windowHeight="13800" xr2:uid="{C7C7E133-6540-4860-8BFB-5820B99056E7}"/>
+    <workbookView xWindow="7608" yWindow="0" windowWidth="13848" windowHeight="13800" xr2:uid="{C7C7E133-6540-4860-8BFB-5820B99056E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,12 +65,6 @@
     <t>Falls Related Admissions</t>
   </si>
   <si>
-    <t>Frail Elderly Admissions (High Frailty Risk)</t>
-  </si>
-  <si>
-    <t>Frail Elderly Admissions (Intermediate Frailty Risk)</t>
-  </si>
-  <si>
     <t>Intentional Self Harm Admissions</t>
   </si>
   <si>
@@ -249,6 +243,12 @@
   </si>
   <si>
     <t>emergency &amp; elective</t>
+  </si>
+  <si>
+    <t>Admissions of Frail Older People (High Frailty Risk)</t>
+  </si>
+  <si>
+    <t>Admissions of Frail Older People  (Intermediate Frailty Risk)</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,512 +636,512 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
       <c r="E1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
